--- a/revC/doc/backplane_bom.xlsx
+++ b/revC/doc/backplane_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjhillis\Documents\LOCAL\Github\backplane\revC\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBD3389-73B1-4DB1-BF68-33997BAE8BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2715AF39-533D-40BC-B514-CA3FC9E4DA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>65</v>
@@ -1452,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>64</v>
@@ -1481,7 +1481,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>66</v>
@@ -1739,7 +1739,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B2">
         <f>SUM(Table15[Qty])</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1800,7 +1800,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1823,7 +1823,8 @@
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <f>A4+1</f>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1846,10 +1847,11 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <f t="shared" ref="A6:A13" si="0">A5+1</f>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>65</v>
@@ -1866,10 +1868,11 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>64</v>
@@ -1886,10 +1889,11 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>66</v>
@@ -1906,7 +1910,8 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1926,7 +1931,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1949,7 +1955,8 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -1972,7 +1979,8 @@
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1995,7 +2003,8 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2</v>
